--- a/Sources/Matériel conception.xlsx
+++ b/Sources/Matériel conception.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TPI\Sources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\TPI\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4E703F-005F-4578-848B-8C4B5CA2EEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16590" windowHeight="12240"/>
+    <workbookView xWindow="25590" yWindow="0" windowWidth="16875" windowHeight="20850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,22 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
-  <si>
-    <t>Matériel employé</t>
-  </si>
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>Station de travail</t>
-  </si>
-  <si>
-    <t>PC Portable</t>
-  </si>
-  <si>
-    <t>Switch</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="44">
   <si>
     <t>Routeur</t>
   </si>
@@ -47,17 +33,137 @@
     <t>Pare-feu</t>
   </si>
   <si>
-    <t>Partie 1</t>
-  </si>
-  <si>
-    <t>OS</t>
+    <t>imprimante</t>
+  </si>
+  <si>
+    <t>server</t>
+  </si>
+  <si>
+    <t>pc</t>
+  </si>
+  <si>
+    <t>firewall</t>
+  </si>
+  <si>
+    <t>switch</t>
+  </si>
+  <si>
+    <t>router</t>
+  </si>
+  <si>
+    <t>switch router</t>
+  </si>
+  <si>
+    <t>école</t>
+  </si>
+  <si>
+    <t>PC05</t>
+  </si>
+  <si>
+    <t>PC C111</t>
+  </si>
+  <si>
+    <t>Commutateur</t>
+  </si>
+  <si>
+    <t>Imprimante</t>
+  </si>
+  <si>
+    <t>Dell Optiplex 7070</t>
+  </si>
+  <si>
+    <t>Fortinet FortiGate 80F</t>
+  </si>
+  <si>
+    <t>Netgear 300 switch series</t>
+  </si>
+  <si>
+    <t>Cisco Catalyst 1900 series</t>
+  </si>
+  <si>
+    <t>Dell Optiplex 9010</t>
+  </si>
+  <si>
+    <t>Xerox Phaser 6600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windows 10 Edu </t>
+  </si>
+  <si>
+    <t>FortiOS 6.4.12</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Matériel</t>
+  </si>
+  <si>
+    <t>Logiciel</t>
+  </si>
+  <si>
+    <t>Phase 1.2</t>
+  </si>
+  <si>
+    <t>Phase 2</t>
+  </si>
+  <si>
+    <t>Cisco Catalyst 3560 series</t>
+  </si>
+  <si>
+    <t>SC-C111-P11,12 &amp; 13</t>
+  </si>
+  <si>
+    <t>SC-C236-PC05</t>
+  </si>
+  <si>
+    <t>Phase 1.1</t>
+  </si>
+  <si>
+    <t>Windows 10 Edu</t>
+  </si>
+  <si>
+    <t>PC C236</t>
+  </si>
+  <si>
+    <t>Cisco Catalyst 1900 Series</t>
+  </si>
+  <si>
+    <t>Cisco Catalyst 3560 Series</t>
+  </si>
+  <si>
+    <t>Netgear 300 switch Series</t>
+  </si>
+  <si>
+    <t>Xerox Phase 6600</t>
+  </si>
+  <si>
+    <t>Client VPN</t>
+  </si>
+  <si>
+    <t>OS/Logiciel</t>
+  </si>
+  <si>
+    <t>FortiClient  VPN 7.0.8.0427</t>
+  </si>
+  <si>
+    <t>Routeur p1</t>
+  </si>
+  <si>
+    <t>Routeur p2</t>
+  </si>
+  <si>
+    <t>Terminal</t>
+  </si>
+  <si>
+    <t>PuTTY 0.78</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,16 +171,61 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -82,12 +233,219 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -367,68 +725,426 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E1">
+        <v>1.2</v>
+      </c>
+      <c r="G1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="C14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="22"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="22"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="22"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="22"/>
+      <c r="B29" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="22"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="22"/>
+      <c r="B30" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="22"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="22"/>
+      <c r="B31" s="25" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
+      <c r="C31" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="22"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="22"/>
+      <c r="B32" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="22"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="22"/>
+      <c r="B33" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="22"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="22"/>
+      <c r="B34" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="22"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="22"/>
+      <c r="B35" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="22"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="22"/>
+      <c r="B36" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="22"/>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="22"/>
+      <c r="B37" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" s="22"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="22"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B20:H20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>